--- a/apidata/momentum/04-08-2023/report_04-08-2023.xlsx
+++ b/apidata/momentum/04-08-2023/report_04-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M143"/>
+  <dimension ref="B1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35024.89999999999</v>
+        <v>75877.5</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4162.399999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30862.5</v>
+        <v>75877.5</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>CIPLA31AUG23C1220</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>694</v>
+        <v>106409</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H10" t="n">
-        <v>40</v>
+        <v>2600</v>
       </c>
       <c r="I10" t="n">
-        <v>1232.5</v>
+        <v>32.35</v>
       </c>
       <c r="J10" t="n">
-        <v>49300</v>
+        <v>84110</v>
       </c>
       <c r="K10" t="n">
-        <v>-49300</v>
+        <v>-84110</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NAUKRI-EQ</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13751</v>
+        <v>136767</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="I11" t="n">
-        <v>4741.55</v>
+        <v>205.2</v>
       </c>
       <c r="J11" t="n">
-        <v>47415.5</v>
+        <v>92340</v>
       </c>
       <c r="K11" t="n">
-        <v>-47415.5</v>
+        <v>-92340</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LICHSGFIN-EQ</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1997</v>
+        <v>133469</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H12" t="n">
-        <v>120</v>
+        <v>6000</v>
       </c>
       <c r="I12" t="n">
-        <v>415.45</v>
+        <v>15.7</v>
       </c>
       <c r="J12" t="n">
-        <v>49854</v>
+        <v>94200</v>
       </c>
       <c r="K12" t="n">
-        <v>-49854</v>
+        <v>-94200</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,41 +727,41 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>772</v>
+        <v>112880</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H13" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="I13" t="n">
-        <v>585.1</v>
+        <v>219.95</v>
       </c>
       <c r="J13" t="n">
-        <v>49733.5</v>
+        <v>87980</v>
       </c>
       <c r="K13" t="n">
-        <v>-49733.5</v>
+        <v>-87980</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,41 +772,41 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DIXON-EQ</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21690</v>
+        <v>38455</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>10200</v>
       </c>
       <c r="I14" t="n">
-        <v>4587.3</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>45873</v>
+        <v>97920</v>
       </c>
       <c r="K14" t="n">
-        <v>-45873</v>
+        <v>-97920</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,221 +817,221 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>ABCAPITAL31AUG23P187.5</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30125</v>
+        <v>65756</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5400</v>
       </c>
       <c r="H15" t="n">
-        <v>309</v>
+        <v>10800</v>
       </c>
       <c r="I15" t="n">
-        <v>161.6</v>
+        <v>6.45</v>
       </c>
       <c r="J15" t="n">
-        <v>49934.4</v>
+        <v>69660</v>
       </c>
       <c r="K15" t="n">
-        <v>49934.4</v>
+        <v>-69660</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>MGL31AUG23P1100</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21614</v>
+        <v>135604</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="H16" t="n">
-        <v>261</v>
+        <v>1600</v>
       </c>
       <c r="I16" t="n">
-        <v>191.25</v>
+        <v>43.9</v>
       </c>
       <c r="J16" t="n">
-        <v>49916.25</v>
+        <v>70240</v>
       </c>
       <c r="K16" t="n">
-        <v>49916.25</v>
+        <v>-70240</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MGL-EQ</t>
+          <t>METROPOLIS31AUG23P1380</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17534</v>
+        <v>135364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H17" t="n">
-        <v>44</v>
+        <v>1600</v>
       </c>
       <c r="I17" t="n">
-        <v>1120.4</v>
+        <v>53.25</v>
       </c>
       <c r="J17" t="n">
-        <v>49297.6</v>
+        <v>85200</v>
       </c>
       <c r="K17" t="n">
-        <v>49297.6</v>
+        <v>-85200</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9581</v>
+        <v>128468</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H18" t="n">
-        <v>35</v>
+        <v>10800</v>
       </c>
       <c r="I18" t="n">
-        <v>1395</v>
+        <v>7.6</v>
       </c>
       <c r="J18" t="n">
-        <v>48825</v>
+        <v>82080</v>
       </c>
       <c r="K18" t="n">
-        <v>48825</v>
+        <v>-82080</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:21:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1406</v>
+        <v>133469</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H19" t="n">
-        <v>184</v>
+        <v>6000</v>
       </c>
       <c r="I19" t="n">
-        <v>270.35</v>
+        <v>12.9</v>
       </c>
       <c r="J19" t="n">
-        <v>49744.4</v>
+        <v>77400</v>
       </c>
       <c r="K19" t="n">
-        <v>49744.4</v>
+        <v>77400</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 10:23:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1052,31 +1052,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>CIPLA31AUG23C1220</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>694</v>
+        <v>106409</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>2600</v>
       </c>
       <c r="I20" t="n">
-        <v>1227</v>
+        <v>30.85</v>
       </c>
       <c r="J20" t="n">
-        <v>49080</v>
+        <v>80210</v>
       </c>
       <c r="K20" t="n">
-        <v>49080</v>
+        <v>80210</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,41 +1087,41 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 10:25:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NAUKRI-EQ</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13751</v>
+        <v>112880</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="I21" t="n">
-        <v>4742.05</v>
+        <v>210</v>
       </c>
       <c r="J21" t="n">
-        <v>47420.5</v>
+        <v>84000</v>
       </c>
       <c r="K21" t="n">
-        <v>47420.5</v>
+        <v>84000</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,41 +1132,41 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 10:36:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LICHSGFIN-EQ</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1997</v>
+        <v>136767</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H22" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="I22" t="n">
-        <v>419.5</v>
+        <v>213.5</v>
       </c>
       <c r="J22" t="n">
-        <v>50340</v>
+        <v>96075</v>
       </c>
       <c r="K22" t="n">
-        <v>50340</v>
+        <v>96075</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1177,131 +1177,131 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>772</v>
+        <v>106407</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H23" t="n">
-        <v>85</v>
+        <v>2600</v>
       </c>
       <c r="I23" t="n">
-        <v>577.1</v>
+        <v>35.75</v>
       </c>
       <c r="J23" t="n">
-        <v>49053.5</v>
+        <v>92950</v>
       </c>
       <c r="K23" t="n">
-        <v>49053.5</v>
+        <v>-92950</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DIXON-EQ</t>
+          <t>NAUKRI31AUG23C4850</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21690</v>
+        <v>136769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="I24" t="n">
-        <v>4652.25</v>
+        <v>214.55</v>
       </c>
       <c r="J24" t="n">
-        <v>46522.5</v>
+        <v>96547.5</v>
       </c>
       <c r="K24" t="n">
-        <v>46522.5</v>
+        <v>-96547.5</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30125</v>
+        <v>133469</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H25" t="n">
-        <v>309</v>
+        <v>6000</v>
       </c>
       <c r="I25" t="n">
-        <v>166.5</v>
+        <v>15.5</v>
       </c>
       <c r="J25" t="n">
-        <v>51448.5</v>
+        <v>93000</v>
       </c>
       <c r="K25" t="n">
-        <v>-51448.5</v>
+        <v>-93000</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>DABUR31AUG23C570</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21614</v>
+        <v>111484</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="H26" t="n">
-        <v>261</v>
+        <v>5000</v>
       </c>
       <c r="I26" t="n">
-        <v>188.6</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>49224.6</v>
+        <v>85000</v>
       </c>
       <c r="K26" t="n">
-        <v>-49224.6</v>
+        <v>-85000</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,41 +1357,41 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MGL-EQ</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17534</v>
+        <v>112880</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H27" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="I27" t="n">
-        <v>1055.3</v>
+        <v>205</v>
       </c>
       <c r="J27" t="n">
-        <v>46433.2</v>
+        <v>82000</v>
       </c>
       <c r="K27" t="n">
-        <v>-46433.2</v>
+        <v>-82000</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,41 +1402,41 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>METROPOLIS-EQ</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9581</v>
+        <v>38455</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H28" t="n">
-        <v>35</v>
+        <v>10200</v>
       </c>
       <c r="I28" t="n">
-        <v>1359.95</v>
+        <v>9.25</v>
       </c>
       <c r="J28" t="n">
-        <v>47598.25</v>
+        <v>94350</v>
       </c>
       <c r="K28" t="n">
-        <v>-47598.25</v>
+        <v>-94350</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,66 +1447,66 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:24:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1406</v>
+        <v>106407</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H29" t="n">
-        <v>184</v>
+        <v>2600</v>
       </c>
       <c r="I29" t="n">
-        <v>266.8</v>
+        <v>33.1</v>
       </c>
       <c r="J29" t="n">
-        <v>49091.2</v>
+        <v>86060</v>
       </c>
       <c r="K29" t="n">
-        <v>-49091.2</v>
+        <v>86060</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 11:29:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23C1210</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106407</v>
+        <v>112880</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,30 +1514,30 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="H30" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="I30" t="n">
-        <v>33.25</v>
+        <v>183.45</v>
       </c>
       <c r="J30" t="n">
-        <v>43225</v>
+        <v>73380</v>
       </c>
       <c r="K30" t="n">
-        <v>-43225</v>
+        <v>73380</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 11:31:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4800</t>
+          <t>NAUKRI31AUG23C4850</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>136767</v>
+        <v>136769</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1562,27 +1562,27 @@
         <v>150</v>
       </c>
       <c r="H31" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="I31" t="n">
-        <v>200.85</v>
+        <v>191.05</v>
       </c>
       <c r="J31" t="n">
-        <v>30127.5</v>
+        <v>85972.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-30127.5</v>
+        <v>85972.5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 12:14:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>133475</v>
+        <v>133469</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1607,20 +1607,20 @@
         <v>2000</v>
       </c>
       <c r="H32" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I32" t="n">
-        <v>15.5</v>
+        <v>24.4</v>
       </c>
       <c r="J32" t="n">
-        <v>31000</v>
+        <v>146400</v>
       </c>
       <c r="K32" t="n">
-        <v>-31000</v>
+        <v>146400</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1632,16 +1632,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4600</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>112874</v>
+        <v>106407</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="H33" t="n">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="I33" t="n">
-        <v>183.35</v>
+        <v>33.25</v>
       </c>
       <c r="J33" t="n">
-        <v>36670</v>
+        <v>86450</v>
       </c>
       <c r="K33" t="n">
-        <v>-36670</v>
+        <v>-86450</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38455</v>
+        <v>136767</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5100</v>
+        <v>150</v>
       </c>
       <c r="H34" t="n">
-        <v>5100</v>
+        <v>450</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>200.85</v>
       </c>
       <c r="J34" t="n">
-        <v>45900</v>
+        <v>90382.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-45900</v>
+        <v>-90382.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>65756</v>
+        <v>133475</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5400</v>
+        <v>2000</v>
       </c>
       <c r="H35" t="n">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="I35" t="n">
-        <v>6.2</v>
+        <v>15.5</v>
       </c>
       <c r="J35" t="n">
-        <v>33480</v>
+        <v>93000</v>
       </c>
       <c r="K35" t="n">
-        <v>-33480</v>
+        <v>-93000</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>DIXON31AUG23C4600</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>135598</v>
+        <v>112874</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H36" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I36" t="n">
-        <v>41.65</v>
+        <v>183.35</v>
       </c>
       <c r="J36" t="n">
-        <v>33320</v>
+        <v>73340</v>
       </c>
       <c r="K36" t="n">
-        <v>-33320</v>
+        <v>-73340</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1812,16 +1812,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>ABCAPITAL31AUG23P187.5</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>135362</v>
+        <v>65756</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>400</v>
+        <v>5400</v>
       </c>
       <c r="H37" t="n">
-        <v>800</v>
+        <v>10800</v>
       </c>
       <c r="I37" t="n">
-        <v>48.05</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>38440</v>
+        <v>66960</v>
       </c>
       <c r="K37" t="n">
-        <v>-38440</v>
+        <v>-66960</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 12:34:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>128468</v>
+        <v>136767</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,44 +1874,44 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2700</v>
+        <v>150</v>
       </c>
       <c r="H38" t="n">
-        <v>5400</v>
+        <v>450</v>
       </c>
       <c r="I38" t="n">
-        <v>7.6</v>
+        <v>185</v>
       </c>
       <c r="J38" t="n">
-        <v>41040</v>
+        <v>83250</v>
       </c>
       <c r="K38" t="n">
-        <v>-41040</v>
+        <v>83250</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 12:38:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23C1210</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>106407</v>
+        <v>133475</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="H39" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="I39" t="n">
-        <v>33.5</v>
+        <v>15.35</v>
       </c>
       <c r="J39" t="n">
-        <v>43550</v>
+        <v>92100</v>
       </c>
       <c r="K39" t="n">
-        <v>43550</v>
+        <v>92100</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 12:43:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4800</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>136767</v>
+        <v>106407</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="H40" t="n">
-        <v>150</v>
+        <v>2600</v>
       </c>
       <c r="I40" t="n">
-        <v>203.9</v>
+        <v>31.6</v>
       </c>
       <c r="J40" t="n">
-        <v>30585</v>
+        <v>82160</v>
       </c>
       <c r="K40" t="n">
-        <v>30585</v>
+        <v>82160</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1987,21 +1987,21 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 12:48:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>DABUR</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>DABUR31AUG23C570</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>133475</v>
+        <v>111484</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="H41" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="I41" t="n">
-        <v>16.2</v>
+        <v>15.75</v>
       </c>
       <c r="J41" t="n">
-        <v>32400</v>
+        <v>78750</v>
       </c>
       <c r="K41" t="n">
-        <v>32400</v>
+        <v>78750</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 13:14:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2057,16 +2057,16 @@
         <v>200</v>
       </c>
       <c r="H42" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I42" t="n">
-        <v>181.6</v>
+        <v>182.95</v>
       </c>
       <c r="J42" t="n">
-        <v>36320</v>
+        <v>73180</v>
       </c>
       <c r="K42" t="n">
-        <v>36320</v>
+        <v>73180</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2102,16 +2102,16 @@
         <v>2000</v>
       </c>
       <c r="H43" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I43" t="n">
         <v>15.75</v>
       </c>
       <c r="J43" t="n">
-        <v>31500</v>
+        <v>94500</v>
       </c>
       <c r="K43" t="n">
-        <v>-31500</v>
+        <v>-94500</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2147,16 +2147,16 @@
         <v>800</v>
       </c>
       <c r="H44" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I44" t="n">
         <v>43.1</v>
       </c>
       <c r="J44" t="n">
-        <v>34480</v>
+        <v>68960</v>
       </c>
       <c r="K44" t="n">
-        <v>-34480</v>
+        <v>-68960</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         <v>400</v>
       </c>
       <c r="H45" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="I45" t="n">
         <v>45</v>
       </c>
       <c r="J45" t="n">
-        <v>36000</v>
+        <v>90000</v>
       </c>
       <c r="K45" t="n">
-        <v>-36000</v>
+        <v>-90000</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-04 13:15:00</t>
+          <t>2023-08-04 13:26:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2237,16 +2237,16 @@
         <v>2000</v>
       </c>
       <c r="H46" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I46" t="n">
-        <v>15.75</v>
+        <v>14.4</v>
       </c>
       <c r="J46" t="n">
-        <v>31500</v>
+        <v>86400</v>
       </c>
       <c r="K46" t="n">
-        <v>31500</v>
+        <v>86400</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>2000</v>
       </c>
       <c r="H47" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I47" t="n">
         <v>15.35</v>
       </c>
       <c r="J47" t="n">
-        <v>30700</v>
+        <v>92100</v>
       </c>
       <c r="K47" t="n">
-        <v>-30700</v>
+        <v>-92100</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2327,16 +2327,16 @@
         <v>800</v>
       </c>
       <c r="H48" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="I48" t="n">
         <v>41</v>
       </c>
       <c r="J48" t="n">
-        <v>32800</v>
+        <v>98400</v>
       </c>
       <c r="K48" t="n">
-        <v>-32800</v>
+        <v>-98400</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2372,16 +2372,16 @@
         <v>400</v>
       </c>
       <c r="H49" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I49" t="n">
         <v>50.95</v>
       </c>
       <c r="J49" t="n">
-        <v>40760</v>
+        <v>81520</v>
       </c>
       <c r="K49" t="n">
-        <v>-40760</v>
+        <v>-81520</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 14:49:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2417,16 +2417,16 @@
         <v>2000</v>
       </c>
       <c r="H50" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="I50" t="n">
-        <v>15.35</v>
+        <v>17</v>
       </c>
       <c r="J50" t="n">
-        <v>30700</v>
+        <v>102000</v>
       </c>
       <c r="K50" t="n">
-        <v>30700</v>
+        <v>102000</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2437,21 +2437,21 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38455</v>
+        <v>136771</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2459,23 +2459,23 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5100</v>
+        <v>150</v>
       </c>
       <c r="H51" t="n">
-        <v>5100</v>
+        <v>300</v>
       </c>
       <c r="I51" t="n">
-        <v>7.8</v>
+        <v>225.1</v>
       </c>
       <c r="J51" t="n">
-        <v>39780</v>
+        <v>67530</v>
       </c>
       <c r="K51" t="n">
-        <v>39780</v>
+        <v>-67530</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2487,16 +2487,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>65756</v>
+        <v>136771</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2504,19 +2504,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5400</v>
+        <v>150</v>
       </c>
       <c r="H52" t="n">
-        <v>5400</v>
+        <v>300</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="J52" t="n">
-        <v>37800</v>
+        <v>66900</v>
       </c>
       <c r="K52" t="n">
-        <v>37800</v>
+        <v>66900</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2532,16 +2532,16 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>135598</v>
+        <v>38455</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2549,19 +2549,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>800</v>
+        <v>5100</v>
       </c>
       <c r="H53" t="n">
-        <v>1600</v>
+        <v>20400</v>
       </c>
       <c r="I53" t="n">
-        <v>49.7</v>
+        <v>7.8</v>
       </c>
       <c r="J53" t="n">
-        <v>79520</v>
+        <v>159120</v>
       </c>
       <c r="K53" t="n">
-        <v>79520</v>
+        <v>159120</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2577,16 +2577,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>ABCAPITAL31AUG23P187.5</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>135596</v>
+        <v>65756</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>800</v>
+        <v>5400</v>
       </c>
       <c r="H54" t="n">
-        <v>800</v>
+        <v>21600</v>
       </c>
       <c r="I54" t="n">
-        <v>43.25</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>34600</v>
+        <v>151200</v>
       </c>
       <c r="K54" t="n">
-        <v>34600</v>
+        <v>151200</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2622,16 +2622,16 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>MGL31AUG23P1100</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>135362</v>
+        <v>135604</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,19 +2639,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H55" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="I55" t="n">
-        <v>52.85</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>126840</v>
+        <v>112640</v>
       </c>
       <c r="K55" t="n">
-        <v>126840</v>
+        <v>112640</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2667,16 +2667,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>MGL31AUG23P1070</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>128468</v>
+        <v>135598</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2684,19 +2684,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="H56" t="n">
-        <v>5400</v>
+        <v>1600</v>
       </c>
       <c r="I56" t="n">
-        <v>8.65</v>
+        <v>49.7</v>
       </c>
       <c r="J56" t="n">
-        <v>46710</v>
+        <v>79520</v>
       </c>
       <c r="K56" t="n">
-        <v>46710</v>
+        <v>79520</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2704,90 +2704,134 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>135596</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>800</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>103800</v>
+      </c>
+      <c r="K57" t="n">
+        <v>103800</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>METROPOLIS31AUG23P1380</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>694</v>
+        <v>135364</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H58" t="n">
-        <v>40</v>
+        <v>1600</v>
       </c>
       <c r="I58" t="n">
-        <v>1232.5</v>
+        <v>64</v>
       </c>
       <c r="J58" t="n">
-        <v>49300</v>
+        <v>102400</v>
       </c>
       <c r="K58" t="n">
-        <v>-49300</v>
+        <v>102400</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>694</v>
+        <v>135362</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H59" t="n">
-        <v>40</v>
+        <v>3600</v>
       </c>
       <c r="I59" t="n">
-        <v>1227</v>
+        <v>52.85</v>
       </c>
       <c r="J59" t="n">
-        <v>49080</v>
+        <v>190260</v>
       </c>
       <c r="K59" t="n">
-        <v>49080</v>
+        <v>190260</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2796,20 +2840,55 @@
       </c>
     </row>
     <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P270</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>128468</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="J60" t="n">
+        <v>93420</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93420</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>-220</v>
+          <t>S</t>
+        </is>
       </c>
     </row>
     <row r="61"/>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2819,11 +2898,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23C1210</t>
+          <t>CIPLA31AUG23C1220</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>106407</v>
+        <v>106409</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2834,16 +2913,16 @@
         <v>650</v>
       </c>
       <c r="H62" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="I62" t="n">
-        <v>33.25</v>
+        <v>32.35</v>
       </c>
       <c r="J62" t="n">
-        <v>43225</v>
+        <v>84110</v>
       </c>
       <c r="K62" t="n">
-        <v>-43225</v>
+        <v>-84110</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2854,7 +2933,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 10:23:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2864,11 +2943,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23C1210</t>
+          <t>CIPLA31AUG23C1220</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>106407</v>
+        <v>106409</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2879,16 +2958,16 @@
         <v>650</v>
       </c>
       <c r="H63" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="I63" t="n">
-        <v>33.5</v>
+        <v>30.85</v>
       </c>
       <c r="J63" t="n">
-        <v>43550</v>
+        <v>80210</v>
       </c>
       <c r="K63" t="n">
-        <v>43550</v>
+        <v>80210</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2903,48 +2982,48 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>325</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="65"/>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NAUKRI-EQ</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13751</v>
+        <v>106407</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="I66" t="n">
-        <v>4741.55</v>
+        <v>35.75</v>
       </c>
       <c r="J66" t="n">
-        <v>47415.5</v>
+        <v>92950</v>
       </c>
       <c r="K66" t="n">
-        <v>-47415.5</v>
+        <v>-92950</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2955,198 +3034,277 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 11:24:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CIPLA31AUG23C1210</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>106407</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>650</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I67" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>86060</v>
+      </c>
+      <c r="K67" t="n">
+        <v>86060</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:15:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CIPLA31AUG23C1210</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>106407</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>650</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I68" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>86450</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-86450</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:43:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CIPLA31AUG23C1210</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>106407</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>650</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2600</v>
+      </c>
+      <c r="I69" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>82160</v>
+      </c>
+      <c r="K69" t="n">
+        <v>82160</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>-11180</v>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-08-04 10:15:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>NAUKRI</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>NAUKRI-EQ</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>13751</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4742.05</v>
-      </c>
-      <c r="J67" t="n">
-        <v>47420.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>47420.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NAUKRI31AUG23C4800</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>136767</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>150</v>
+      </c>
+      <c r="H72" t="n">
+        <v>450</v>
+      </c>
+      <c r="I72" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>92340</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-92340</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-08-04 10:36:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NAUKRI31AUG23C4800</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>136767</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>150</v>
+      </c>
+      <c r="H73" t="n">
+        <v>450</v>
+      </c>
+      <c r="I73" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>96075</v>
+      </c>
+      <c r="K73" t="n">
+        <v>96075</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69"/>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>NAUKRI31AUG23C4800</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>136767</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>150</v>
-      </c>
-      <c r="H70" t="n">
-        <v>150</v>
-      </c>
-      <c r="I70" t="n">
-        <v>200.85</v>
-      </c>
-      <c r="J70" t="n">
-        <v>30127.5</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-30127.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:16:00</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>NAUKRI31AUG23C4800</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>136767</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>150</v>
-      </c>
-      <c r="H71" t="n">
-        <v>150</v>
-      </c>
-      <c r="I71" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>30585</v>
-      </c>
-      <c r="K71" t="n">
-        <v>30585</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>457.5</v>
-      </c>
-    </row>
-    <row r="73"/>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LICHSGFIN-EQ</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1997</v>
+        <v>136767</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H74" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="I74" t="n">
-        <v>415.45</v>
+        <v>200.85</v>
       </c>
       <c r="J74" t="n">
-        <v>49854</v>
+        <v>90382.5</v>
       </c>
       <c r="K74" t="n">
-        <v>-49854</v>
+        <v>-90382.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3157,41 +3315,41 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 12:34:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LICHSGFIN-EQ</t>
+          <t>NAUKRI31AUG23C4800</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1997</v>
+        <v>136767</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H75" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="I75" t="n">
-        <v>419.5</v>
+        <v>185</v>
       </c>
       <c r="J75" t="n">
-        <v>50340</v>
+        <v>83250</v>
       </c>
       <c r="K75" t="n">
-        <v>50340</v>
+        <v>83250</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3206,28 +3364,28 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>486</v>
+        <v>-3397.5</v>
       </c>
     </row>
     <row r="77"/>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>NAUKRI31AUG23C4850</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>133475</v>
+        <v>136769</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3235,19 +3393,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="H78" t="n">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="I78" t="n">
-        <v>15.5</v>
+        <v>214.55</v>
       </c>
       <c r="J78" t="n">
-        <v>31000</v>
+        <v>96547.5</v>
       </c>
       <c r="K78" t="n">
-        <v>-31000</v>
+        <v>-96547.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3258,21 +3416,21 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 11:31:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>NAUKRI31AUG23C4850</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>133475</v>
+        <v>136769</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3280,19 +3438,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="H79" t="n">
-        <v>2000</v>
+        <v>450</v>
       </c>
       <c r="I79" t="n">
-        <v>16.2</v>
+        <v>191.05</v>
       </c>
       <c r="J79" t="n">
-        <v>32400</v>
+        <v>85972.5</v>
       </c>
       <c r="K79" t="n">
-        <v>32400</v>
+        <v>85972.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3301,113 +3459,34 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:15:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>LICHSGFIN31AUG23C430</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>133475</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J80" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-31500</v>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:15:00</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>LICHSGFIN31AUG23C430</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>133475</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J81" t="n">
-        <v>31500</v>
-      </c>
-      <c r="K81" t="n">
-        <v>31500</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-10575</v>
+      </c>
+    </row>
+    <row r="81"/>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>133475</v>
+        <v>136771</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3415,19 +3494,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="H82" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I82" t="n">
-        <v>15.35</v>
+        <v>225.1</v>
       </c>
       <c r="J82" t="n">
-        <v>30700</v>
+        <v>67530</v>
       </c>
       <c r="K82" t="n">
-        <v>-30700</v>
+        <v>-67530</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3438,21 +3517,21 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>133475</v>
+        <v>136771</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3460,19 +3539,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="H83" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I83" t="n">
-        <v>15.35</v>
+        <v>223</v>
       </c>
       <c r="J83" t="n">
-        <v>30700</v>
+        <v>66900</v>
       </c>
       <c r="K83" t="n">
-        <v>30700</v>
+        <v>66900</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3487,48 +3566,48 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1400</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="85"/>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>772</v>
+        <v>133469</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H86" t="n">
-        <v>85</v>
+        <v>6000</v>
       </c>
       <c r="I86" t="n">
-        <v>585.1</v>
+        <v>15.7</v>
       </c>
       <c r="J86" t="n">
-        <v>49733.5</v>
+        <v>94200</v>
       </c>
       <c r="K86" t="n">
-        <v>-49733.5</v>
+        <v>-94200</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3539,41 +3618,41 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>2023-08-04 09:40:00</t>
+          <t>2023-08-04 10:21:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DABUR</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DABUR-EQ</t>
+          <t>LICHSGFIN31AUG23C415</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>772</v>
+        <v>133469</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H87" t="n">
-        <v>85</v>
+        <v>6000</v>
       </c>
       <c r="I87" t="n">
-        <v>577.1</v>
+        <v>12.9</v>
       </c>
       <c r="J87" t="n">
-        <v>49053.5</v>
+        <v>77400</v>
       </c>
       <c r="K87" t="n">
-        <v>49053.5</v>
+        <v>77400</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3582,135 +3661,214 @@
       </c>
     </row>
     <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-08-04 11:15:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C415</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>133469</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>93000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-93000</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:14:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C415</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>133469</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146400</v>
+      </c>
+      <c r="K89" t="n">
+        <v>146400</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="L90" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>-680</v>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-08-04 09:31:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>DIXON-EQ</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>21690</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4587.3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>45873</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-45873</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="n">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:15:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>93000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-93000</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023-08-04 09:40:00</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>DIXON-EQ</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>21690</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4652.25</v>
-      </c>
-      <c r="J91" t="n">
-        <v>46522.5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>46522.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:38:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J93" t="n">
+        <v>92100</v>
+      </c>
+      <c r="K93" t="n">
+        <v>92100</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>649.5</v>
-      </c>
-    </row>
-    <row r="93"/>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 13:15:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4600</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>112874</v>
+        <v>133475</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3718,19 +3876,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H94" t="n">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="I94" t="n">
-        <v>183.35</v>
+        <v>15.75</v>
       </c>
       <c r="J94" t="n">
-        <v>36670</v>
+        <v>94500</v>
       </c>
       <c r="K94" t="n">
-        <v>-36670</v>
+        <v>-94500</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3741,178 +3899,257 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 13:26:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>86400</v>
+      </c>
+      <c r="K95" t="n">
+        <v>86400</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-08-04 14:15:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I96" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="J96" t="n">
+        <v>92100</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-92100</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2023-08-04 14:49:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>102000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>102000</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-08-04 10:15:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>DIXON</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>DIXON31AUG23C4600</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>112874</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DIXON31AUG23C4750</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>112880</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
         <v>200</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H100" t="n">
+        <v>400</v>
+      </c>
+      <c r="I100" t="n">
+        <v>219.95</v>
+      </c>
+      <c r="J100" t="n">
+        <v>87980</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-87980</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-08-04 10:25:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DIXON31AUG23C4750</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>112880</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>200</v>
       </c>
-      <c r="I95" t="n">
-        <v>181.6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>36320</v>
-      </c>
-      <c r="K95" t="n">
-        <v>36320</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="H101" t="n">
+        <v>400</v>
+      </c>
+      <c r="I101" t="n">
+        <v>210</v>
+      </c>
+      <c r="J101" t="n">
+        <v>84000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>84000</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="97"/>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023-08-04 09:31:00</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>309</v>
-      </c>
-      <c r="I98" t="n">
-        <v>161.6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>49934.4</v>
-      </c>
-      <c r="K98" t="n">
-        <v>49934.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:26:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="n">
-        <v>309</v>
-      </c>
-      <c r="I99" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>51448.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-51448.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>-1514.099999999999</v>
-      </c>
-    </row>
-    <row r="101"/>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 11:15:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38455</v>
+        <v>112880</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3920,19 +4157,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5100</v>
+        <v>200</v>
       </c>
       <c r="H102" t="n">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="I102" t="n">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="J102" t="n">
-        <v>45900</v>
+        <v>82000</v>
       </c>
       <c r="K102" t="n">
-        <v>-45900</v>
+        <v>-82000</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -3943,21 +4180,21 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 11:29:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>DIXON31AUG23C4750</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38455</v>
+        <v>112880</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3965,19 +4202,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5100</v>
+        <v>200</v>
       </c>
       <c r="H103" t="n">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="I103" t="n">
-        <v>7.8</v>
+        <v>183.45</v>
       </c>
       <c r="J103" t="n">
-        <v>39780</v>
+        <v>73380</v>
       </c>
       <c r="K103" t="n">
-        <v>39780</v>
+        <v>73380</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -3992,97 +4229,97 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-6120</v>
+        <v>-12600</v>
       </c>
     </row>
     <row r="105"/>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>DIXON31AUG23C4600</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21614</v>
+        <v>112874</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H106" t="n">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="I106" t="n">
-        <v>191.25</v>
+        <v>183.35</v>
       </c>
       <c r="J106" t="n">
-        <v>49916.25</v>
+        <v>73340</v>
       </c>
       <c r="K106" t="n">
-        <v>49916.25</v>
+        <v>-73340</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 13:14:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ABCAPITAL-EQ</t>
+          <t>DIXON31AUG23C4600</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21614</v>
+        <v>112874</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H107" t="n">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="I107" t="n">
-        <v>188.6</v>
+        <v>182.95</v>
       </c>
       <c r="J107" t="n">
-        <v>49224.6</v>
+        <v>73180</v>
       </c>
       <c r="K107" t="n">
-        <v>-49224.6</v>
+        <v>73180</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4093,28 +4330,28 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>691.6500000000015</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="109"/>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>65756</v>
+        <v>38455</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4122,19 +4359,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H110" t="n">
-        <v>5400</v>
+        <v>10200</v>
       </c>
       <c r="I110" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="J110" t="n">
-        <v>33480</v>
+        <v>97920</v>
       </c>
       <c r="K110" t="n">
-        <v>-33480</v>
+        <v>-97920</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4145,254 +4382,254 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
+          <t>2023-08-04 11:15:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P165</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>38455</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J111" t="n">
+        <v>94350</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-94350</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
           <t>2023-08-04 15:26:00</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>65756</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>5400</v>
-      </c>
-      <c r="H111" t="n">
-        <v>5400</v>
-      </c>
-      <c r="I111" t="n">
-        <v>7</v>
-      </c>
-      <c r="J111" t="n">
-        <v>37800</v>
-      </c>
-      <c r="K111" t="n">
-        <v>37800</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P165</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>38455</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>20400</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>159120</v>
+      </c>
+      <c r="K112" t="n">
+        <v>159120</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="L112" t="inlineStr">
+    <row r="113">
+      <c r="L113" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="113"/>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023-08-04 09:31:00</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>MGL-EQ</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>17534</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" t="n">
-        <v>44</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1120.4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>49297.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>49297.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M113" t="n">
+        <v>-33150</v>
+      </c>
+    </row>
+    <row r="114"/>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
+          <t>2023-08-04 10:15:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23P187.5</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>65756</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J115" t="n">
+        <v>69660</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-69660</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:15:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23P187.5</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>65756</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>66960</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-66960</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
           <t>2023-08-04 15:26:00</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>MGL-EQ</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>17534</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="n">
-        <v>44</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1055.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>46433.2</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-46433.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="L116" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23P187.5</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>65756</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H117" t="n">
+        <v>21600</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7</v>
+      </c>
+      <c r="J117" t="n">
+        <v>151200</v>
+      </c>
+      <c r="K117" t="n">
+        <v>151200</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="L118" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>2864.400000000009</v>
-      </c>
-    </row>
-    <row r="117"/>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>135598</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>800</v>
-      </c>
-      <c r="H118" t="n">
-        <v>800</v>
-      </c>
-      <c r="I118" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="J118" t="n">
-        <v>33320</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33320</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:15:00</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>135598</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>800</v>
-      </c>
-      <c r="H119" t="n">
-        <v>800</v>
-      </c>
-      <c r="I119" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>34480</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-34480</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M118" t="n">
+        <v>14580</v>
+      </c>
+    </row>
+    <row r="119"/>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4402,11 +4639,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>MGL31AUG23P1100</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>135598</v>
+        <v>135604</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4420,80 +4657,80 @@
         <v>1600</v>
       </c>
       <c r="I120" t="n">
-        <v>49.7</v>
+        <v>43.9</v>
       </c>
       <c r="J120" t="n">
-        <v>79520</v>
+        <v>70240</v>
       </c>
       <c r="K120" t="n">
-        <v>79520</v>
+        <v>-70240</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1100</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>135604</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>800</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I121" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J121" t="n">
+        <v>112640</v>
+      </c>
+      <c r="K121" t="n">
+        <v>112640</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="L121" t="inlineStr">
+    <row r="122">
+      <c r="L122" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>11720</v>
-      </c>
-    </row>
-    <row r="122"/>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023-08-04 14:15:00</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>135596</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>800</v>
-      </c>
-      <c r="H123" t="n">
-        <v>800</v>
-      </c>
-      <c r="I123" t="n">
-        <v>41</v>
-      </c>
-      <c r="J123" t="n">
-        <v>32800</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-32800</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M122" t="n">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="123"/>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 13:15:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4503,11 +4740,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>MGL31AUG23P1070</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>135596</v>
+        <v>135598</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4518,184 +4755,184 @@
         <v>800</v>
       </c>
       <c r="H124" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I124" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>68960</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-68960</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1070</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>135598</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
         <v>800</v>
       </c>
-      <c r="I124" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="J124" t="n">
-        <v>34600</v>
-      </c>
-      <c r="K124" t="n">
-        <v>34600</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="H125" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I125" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="J125" t="n">
+        <v>79520</v>
+      </c>
+      <c r="K125" t="n">
+        <v>79520</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="L125" t="inlineStr">
+    <row r="126">
+      <c r="L126" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="126"/>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023-08-04 09:31:00</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>METROPOLIS-EQ</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>9581</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="n">
-        <v>35</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1395</v>
-      </c>
-      <c r="J127" t="n">
-        <v>48825</v>
-      </c>
-      <c r="K127" t="n">
-        <v>48825</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M126" t="n">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="127"/>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
+          <t>2023-08-04 14:15:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>135596</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>800</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I128" t="n">
+        <v>41</v>
+      </c>
+      <c r="J128" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-98400</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
           <t>2023-08-04 15:26:00</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>METROPOLIS-EQ</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>9581</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="n">
-        <v>35</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1359.95</v>
-      </c>
-      <c r="J128" t="n">
-        <v>47598.25</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-47598.25</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>135596</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>800</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I129" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="J129" t="n">
+        <v>103800</v>
+      </c>
+      <c r="K129" t="n">
+        <v>103800</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="L130" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1226.75</v>
-      </c>
-    </row>
-    <row r="130"/>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23P1360</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>135362</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>400</v>
-      </c>
-      <c r="H131" t="n">
-        <v>800</v>
-      </c>
-      <c r="I131" t="n">
-        <v>48.05</v>
-      </c>
-      <c r="J131" t="n">
-        <v>38440</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-38440</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M130" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="131"/>
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>2023-08-04 13:15:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4705,11 +4942,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>METROPOLIS31AUG23P1380</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>135362</v>
+        <v>135364</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4720,16 +4957,16 @@
         <v>400</v>
       </c>
       <c r="H132" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I132" t="n">
-        <v>45</v>
+        <v>53.25</v>
       </c>
       <c r="J132" t="n">
-        <v>36000</v>
+        <v>85200</v>
       </c>
       <c r="K132" t="n">
-        <v>-36000</v>
+        <v>-85200</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -4740,7 +4977,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4750,11 +4987,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>METROPOLIS31AUG23P1380</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>135362</v>
+        <v>135364</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4765,121 +5002,121 @@
         <v>400</v>
       </c>
       <c r="H133" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I133" t="n">
-        <v>50.95</v>
+        <v>64</v>
       </c>
       <c r="J133" t="n">
-        <v>40760</v>
+        <v>102400</v>
       </c>
       <c r="K133" t="n">
-        <v>-40760</v>
+        <v>102400</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2023-08-04 13:15:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23P1360</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>135362</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>400</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I136" t="n">
+        <v>45</v>
+      </c>
+      <c r="J136" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-90000</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:26:00</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23P1360</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>135362</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>400</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I134" t="n">
-        <v>52.85</v>
-      </c>
-      <c r="J134" t="n">
-        <v>126840</v>
-      </c>
-      <c r="K134" t="n">
-        <v>126840</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>11640</v>
-      </c>
-    </row>
-    <row r="136"/>
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>2023-08-04 09:31:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1406</v>
+        <v>135362</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H137" t="n">
-        <v>184</v>
+        <v>1600</v>
       </c>
       <c r="I137" t="n">
-        <v>270.35</v>
+        <v>50.95</v>
       </c>
       <c r="J137" t="n">
-        <v>49744.4</v>
+        <v>81520</v>
       </c>
       <c r="K137" t="n">
-        <v>49744.4</v>
+        <v>-81520</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4891,40 +5128,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1406</v>
+        <v>135362</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="H138" t="n">
-        <v>184</v>
+        <v>3600</v>
       </c>
       <c r="I138" t="n">
-        <v>266.8</v>
+        <v>52.85</v>
       </c>
       <c r="J138" t="n">
-        <v>49091.2</v>
+        <v>190260</v>
       </c>
       <c r="K138" t="n">
-        <v>-49091.2</v>
+        <v>190260</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4935,14 +5172,14 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>653.2000000000044</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="140"/>
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 10:15:00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4967,16 +5204,16 @@
         <v>2700</v>
       </c>
       <c r="H141" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I141" t="n">
         <v>7.6</v>
       </c>
       <c r="J141" t="n">
-        <v>41040</v>
+        <v>82080</v>
       </c>
       <c r="K141" t="n">
-        <v>-41040</v>
+        <v>-82080</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5012,16 +5249,16 @@
         <v>2700</v>
       </c>
       <c r="H142" t="n">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="I142" t="n">
         <v>8.65</v>
       </c>
       <c r="J142" t="n">
-        <v>46710</v>
+        <v>93420</v>
       </c>
       <c r="K142" t="n">
-        <v>46710</v>
+        <v>93420</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5036,7 +5273,108 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>5670</v>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="144"/>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2023-08-04 11:15:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>DABUR31AUG23C570</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>111484</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I145" t="n">
+        <v>17</v>
+      </c>
+      <c r="J145" t="n">
+        <v>85000</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-85000</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:48:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DABUR</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>DABUR31AUG23C570</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>111484</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I146" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="J146" t="n">
+        <v>78750</v>
+      </c>
+      <c r="K146" t="n">
+        <v>78750</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>-6250</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/04-08-2023/report_04-08-2023.xlsx
+++ b/apidata/momentum/04-08-2023/report_04-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M109"/>
+  <dimension ref="B1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51442.5</v>
+        <v>66692.5</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51442.5</v>
+        <v>66692.5</v>
       </c>
     </row>
     <row r="7"/>
@@ -1177,21 +1177,21 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-04 13:05:00</t>
+          <t>2023-08-04 12:34:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>135598</v>
+        <v>38455</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1199,19 +1199,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>800</v>
+        <v>5100</v>
       </c>
       <c r="H23" t="n">
-        <v>2400</v>
+        <v>10200</v>
       </c>
       <c r="I23" t="n">
-        <v>47.65</v>
+        <v>8.1</v>
       </c>
       <c r="J23" t="n">
-        <v>114360</v>
+        <v>82620</v>
       </c>
       <c r="K23" t="n">
-        <v>114360</v>
+        <v>82620</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-04 13:20:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>135598</v>
+        <v>133475</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,44 +1424,44 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="H28" t="n">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="I28" t="n">
-        <v>47.7</v>
+        <v>15.35</v>
       </c>
       <c r="J28" t="n">
-        <v>76320</v>
+        <v>92100</v>
       </c>
       <c r="K28" t="n">
-        <v>76320</v>
+        <v>-92100</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-04 13:28:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P270</t>
+          <t>MGL31AUG23P1060</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>128468</v>
+        <v>135596</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,44 +1469,44 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="H29" t="n">
-        <v>10800</v>
+        <v>2400</v>
       </c>
       <c r="I29" t="n">
-        <v>7.9</v>
+        <v>41</v>
       </c>
       <c r="J29" t="n">
-        <v>85320</v>
+        <v>98400</v>
       </c>
       <c r="K29" t="n">
-        <v>85320</v>
+        <v>-98400</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-04 13:34:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38455</v>
+        <v>135362</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,44 +1514,44 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5100</v>
+        <v>400</v>
       </c>
       <c r="H30" t="n">
-        <v>10200</v>
+        <v>1600</v>
       </c>
       <c r="I30" t="n">
-        <v>8.550000000000001</v>
+        <v>50.95</v>
       </c>
       <c r="J30" t="n">
-        <v>87210</v>
+        <v>81520</v>
       </c>
       <c r="K30" t="n">
-        <v>87210</v>
+        <v>-81520</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-04 13:35:00</t>
+          <t>2023-08-04 14:16:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>65756</v>
+        <v>133475</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5400</v>
+        <v>2000</v>
       </c>
       <c r="H31" t="n">
-        <v>10800</v>
+        <v>6000</v>
       </c>
       <c r="I31" t="n">
-        <v>7.25</v>
+        <v>15.2</v>
       </c>
       <c r="J31" t="n">
-        <v>78300</v>
+        <v>91200</v>
       </c>
       <c r="K31" t="n">
-        <v>78300</v>
+        <v>91200</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1582,21 +1582,21 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-04 14:04:00</t>
+          <t>2023-08-04 14:23:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>ABCAPITAL31AUG23P187.5</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>135362</v>
+        <v>65756</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>400</v>
+        <v>5400</v>
       </c>
       <c r="H32" t="n">
-        <v>4000</v>
+        <v>10800</v>
       </c>
       <c r="I32" t="n">
-        <v>48.6</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>194400</v>
+        <v>69120</v>
       </c>
       <c r="K32" t="n">
-        <v>194400</v>
+        <v>69120</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1627,21 +1627,21 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>133475</v>
+        <v>136771</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="H33" t="n">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="I33" t="n">
-        <v>15.35</v>
+        <v>225.1</v>
       </c>
       <c r="J33" t="n">
-        <v>92100</v>
+        <v>67530</v>
       </c>
       <c r="K33" t="n">
-        <v>-92100</v>
+        <v>-67530</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1672,21 +1672,21 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>DIXON31AUG23C4650</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>135596</v>
+        <v>112876</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H34" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="I34" t="n">
-        <v>41</v>
+        <v>178.55</v>
       </c>
       <c r="J34" t="n">
-        <v>98400</v>
+        <v>71420</v>
       </c>
       <c r="K34" t="n">
-        <v>-98400</v>
+        <v>-71420</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1717,21 +1717,21 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-04 14:15:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>MGL31AUG23P1060</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>135362</v>
+        <v>135596</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H35" t="n">
         <v>1600</v>
       </c>
       <c r="I35" t="n">
-        <v>50.95</v>
+        <v>44.25</v>
       </c>
       <c r="J35" t="n">
-        <v>81520</v>
+        <v>70800</v>
       </c>
       <c r="K35" t="n">
-        <v>-81520</v>
+        <v>-70800</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1762,21 +1762,21 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-08-04 14:16:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>HINDPETRO31AUG23P267.5</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>133475</v>
+        <v>128466</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,44 +1784,44 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H36" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="I36" t="n">
-        <v>15.2</v>
+        <v>7.3</v>
       </c>
       <c r="J36" t="n">
-        <v>91200</v>
+        <v>98550</v>
       </c>
       <c r="K36" t="n">
-        <v>91200</v>
+        <v>-98550</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-08-04 15:10:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>NAUKRI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>135596</v>
+        <v>136771</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="H37" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="I37" t="n">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="J37" t="n">
-        <v>108000</v>
+        <v>66900</v>
       </c>
       <c r="K37" t="n">
-        <v>108000</v>
+        <v>66900</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1852,21 +1852,21 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-08-04 15:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4900</t>
+          <t>DIXON31AUG23C4650</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>136771</v>
+        <v>112876</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,44 +1874,44 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H38" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I38" t="n">
-        <v>225.1</v>
+        <v>164.2</v>
       </c>
       <c r="J38" t="n">
-        <v>67530</v>
+        <v>65680</v>
       </c>
       <c r="K38" t="n">
-        <v>-67530</v>
+        <v>65680</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-04 15:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4650</t>
+          <t>MGL31AUG23P1070</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>112876</v>
+        <v>135598</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,30 +1919,30 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H39" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="I39" t="n">
-        <v>178.55</v>
+        <v>49.7</v>
       </c>
       <c r="J39" t="n">
-        <v>71420</v>
+        <v>198800</v>
       </c>
       <c r="K39" t="n">
-        <v>-71420</v>
+        <v>198800</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-08-04 15:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1967,41 +1967,41 @@
         <v>800</v>
       </c>
       <c r="H40" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="I40" t="n">
-        <v>44.25</v>
+        <v>43.25</v>
       </c>
       <c r="J40" t="n">
-        <v>70800</v>
+        <v>173000</v>
       </c>
       <c r="K40" t="n">
-        <v>-70800</v>
+        <v>173000</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-08-04 15:15:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P267.5</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>128466</v>
+        <v>135362</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,23 +2009,23 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="H41" t="n">
-        <v>13500</v>
+        <v>5600</v>
       </c>
       <c r="I41" t="n">
-        <v>7.3</v>
+        <v>52.85</v>
       </c>
       <c r="J41" t="n">
-        <v>98550</v>
+        <v>295960</v>
       </c>
       <c r="K41" t="n">
-        <v>-98550</v>
+        <v>295960</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2037,16 +2037,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4900</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>136771</v>
+        <v>128468</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>150</v>
+        <v>2700</v>
       </c>
       <c r="H42" t="n">
-        <v>300</v>
+        <v>10800</v>
       </c>
       <c r="I42" t="n">
-        <v>223</v>
+        <v>8.65</v>
       </c>
       <c r="J42" t="n">
-        <v>66900</v>
+        <v>93420</v>
       </c>
       <c r="K42" t="n">
-        <v>66900</v>
+        <v>93420</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4650</t>
+          <t>HINDPETRO31AUG23P267.5</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>112876</v>
+        <v>128466</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="H43" t="n">
-        <v>400</v>
+        <v>13500</v>
       </c>
       <c r="I43" t="n">
-        <v>164.2</v>
+        <v>7.3</v>
       </c>
       <c r="J43" t="n">
-        <v>65680</v>
+        <v>98550</v>
       </c>
       <c r="K43" t="n">
-        <v>65680</v>
+        <v>98550</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2119,69 +2119,25 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:26:00</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>135596</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>800</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I44" t="n">
-        <v>43.25</v>
-      </c>
-      <c r="J44" t="n">
-        <v>69200</v>
-      </c>
-      <c r="K44" t="n">
-        <v>69200</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+    <row r="44"/>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>135362</v>
+        <v>106407</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,44 +2145,44 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="H45" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="I45" t="n">
-        <v>52.85</v>
+        <v>33.25</v>
       </c>
       <c r="J45" t="n">
-        <v>84560</v>
+        <v>86450</v>
       </c>
       <c r="K45" t="n">
-        <v>84560</v>
+        <v>-86450</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 12:16:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P267.5</t>
+          <t>CIPLA31AUG23C1210</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>128466</v>
+        <v>106407</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2234,19 +2190,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2700</v>
+        <v>650</v>
       </c>
       <c r="H46" t="n">
-        <v>13500</v>
+        <v>2600</v>
       </c>
       <c r="I46" t="n">
-        <v>7.3</v>
+        <v>33.5</v>
       </c>
       <c r="J46" t="n">
-        <v>98550</v>
+        <v>87100</v>
       </c>
       <c r="K46" t="n">
-        <v>98550</v>
+        <v>87100</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2254,157 +2210,122 @@
         </is>
       </c>
     </row>
-    <row r="47"/>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23C1210</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>106407</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
+    <row r="47">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>650</v>
       </c>
-      <c r="H48" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I48" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="J48" t="n">
-        <v>86450</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-86450</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="48"/>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
+          <t>2023-08-04 12:15:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NAUKRI31AUG23C4800</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>136767</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>150</v>
+      </c>
+      <c r="H49" t="n">
+        <v>450</v>
+      </c>
+      <c r="I49" t="n">
+        <v>200.85</v>
+      </c>
+      <c r="J49" t="n">
+        <v>90382.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-90382.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
           <t>2023-08-04 12:16:00</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23C1210</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>106407</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>650</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2600</v>
-      </c>
-      <c r="I49" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>87100</v>
-      </c>
-      <c r="K49" t="n">
-        <v>87100</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NAUKRI31AUG23C4800</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>136767</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>150</v>
+      </c>
+      <c r="H50" t="n">
+        <v>450</v>
+      </c>
+      <c r="I50" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>91755</v>
+      </c>
+      <c r="K50" t="n">
+        <v>91755</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="L50" t="inlineStr">
+    <row r="51">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="51"/>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>NAUKRI31AUG23C4800</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>136767</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>150</v>
-      </c>
-      <c r="H52" t="n">
-        <v>450</v>
-      </c>
-      <c r="I52" t="n">
-        <v>200.85</v>
-      </c>
-      <c r="J52" t="n">
-        <v>90382.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-90382.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M51" t="n">
+        <v>1372.5</v>
+      </c>
+    </row>
+    <row r="52"/>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2414,11 +2335,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4800</t>
+          <t>NAUKRI31AUG23C4900</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>136767</v>
+        <v>136771</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2429,97 +2350,97 @@
         <v>150</v>
       </c>
       <c r="H53" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I53" t="n">
-        <v>203.9</v>
+        <v>225.1</v>
       </c>
       <c r="J53" t="n">
-        <v>91755</v>
+        <v>67530</v>
       </c>
       <c r="K53" t="n">
-        <v>91755</v>
+        <v>-67530</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NAUKRI</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NAUKRI31AUG23C4900</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>136771</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>150</v>
+      </c>
+      <c r="H54" t="n">
+        <v>300</v>
+      </c>
+      <c r="I54" t="n">
+        <v>223</v>
+      </c>
+      <c r="J54" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K54" t="n">
+        <v>66900</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="L54" t="inlineStr">
+    <row r="55">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1372.5</v>
-      </c>
-    </row>
-    <row r="55"/>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:15:00</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>NAUKRI</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>NAUKRI31AUG23C4900</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>136771</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>150</v>
-      </c>
-      <c r="H56" t="n">
-        <v>300</v>
-      </c>
-      <c r="I56" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>67530</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-67530</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M55" t="n">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="56"/>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NAUKRI</t>
+          <t>LICHSGFIN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NAUKRI31AUG23C4900</t>
+          <t>LICHSGFIN31AUG23C430</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>136771</v>
+        <v>133475</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2527,41 +2448,120 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="H57" t="n">
-        <v>300</v>
+        <v>6000</v>
       </c>
       <c r="I57" t="n">
-        <v>223</v>
+        <v>15.5</v>
       </c>
       <c r="J57" t="n">
-        <v>66900</v>
+        <v>93000</v>
       </c>
       <c r="K57" t="n">
-        <v>66900</v>
+        <v>-93000</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:16:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K58" t="n">
+        <v>97200</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-630</v>
-      </c>
-    </row>
-    <row r="59"/>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-08-04 13:15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LICHSGFIN</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LICHSGFIN31AUG23C430</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>133475</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="J59" t="n">
+        <v>94500</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-94500</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-08-04 12:15:00</t>
+          <t>2023-08-04 13:16:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2589,24 +2589,24 @@
         <v>6000</v>
       </c>
       <c r="I60" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="J60" t="n">
-        <v>93000</v>
+        <v>96600</v>
       </c>
       <c r="K60" t="n">
-        <v>-93000</v>
+        <v>96600</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2634,24 +2634,24 @@
         <v>6000</v>
       </c>
       <c r="I61" t="n">
-        <v>16.2</v>
+        <v>15.35</v>
       </c>
       <c r="J61" t="n">
-        <v>97200</v>
+        <v>92100</v>
       </c>
       <c r="K61" t="n">
-        <v>97200</v>
+        <v>-92100</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-08-04 13:15:00</t>
+          <t>2023-08-04 14:16:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2679,128 +2679,49 @@
         <v>6000</v>
       </c>
       <c r="I62" t="n">
-        <v>15.75</v>
+        <v>15.2</v>
       </c>
       <c r="J62" t="n">
-        <v>94500</v>
+        <v>91200</v>
       </c>
       <c r="K62" t="n">
-        <v>-94500</v>
+        <v>91200</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:16:00</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>LICHSGFIN31AUG23C430</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>133475</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I63" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>96600</v>
-      </c>
-      <c r="K63" t="n">
-        <v>96600</v>
-      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-08-04 14:15:00</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LICHSGFIN</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>LICHSGFIN31AUG23C430</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>133475</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>6000</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="J64" t="n">
-        <v>92100</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-92100</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="64"/>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-08-04 14:16:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LICHSGFIN</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LICHSGFIN31AUG23C430</t>
+          <t>DIXON31AUG23C4600</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>133475</v>
+        <v>112874</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2808,86 +2729,86 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H65" t="n">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="I65" t="n">
-        <v>15.2</v>
+        <v>183.35</v>
       </c>
       <c r="J65" t="n">
-        <v>91200</v>
+        <v>73340</v>
       </c>
       <c r="K65" t="n">
-        <v>91200</v>
+        <v>-73340</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:16:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DIXON31AUG23C4600</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>112874</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>200</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72640</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72640</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="L66" t="inlineStr">
+    <row r="67">
+      <c r="L67" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>DIXON31AUG23C4600</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>112874</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>200</v>
-      </c>
-      <c r="H68" t="n">
-        <v>400</v>
-      </c>
-      <c r="I68" t="n">
-        <v>183.35</v>
-      </c>
-      <c r="J68" t="n">
-        <v>73340</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-73340</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M67" t="n">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="68"/>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>2023-08-04 12:16:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2897,11 +2818,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4600</t>
+          <t>DIXON31AUG23C4650</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>112874</v>
+        <v>112876</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2915,94 +2836,94 @@
         <v>400</v>
       </c>
       <c r="I69" t="n">
-        <v>181.6</v>
+        <v>178.55</v>
       </c>
       <c r="J69" t="n">
-        <v>72640</v>
+        <v>71420</v>
       </c>
       <c r="K69" t="n">
-        <v>72640</v>
+        <v>-71420</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DIXON31AUG23C4650</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>112876</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>200</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65680</v>
+      </c>
+      <c r="K70" t="n">
+        <v>65680</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="L70" t="inlineStr">
+    <row r="71">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="71"/>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:15:00</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DIXON</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>DIXON31AUG23C4650</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>112876</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>200</v>
-      </c>
-      <c r="H72" t="n">
-        <v>400</v>
-      </c>
-      <c r="I72" t="n">
-        <v>178.55</v>
-      </c>
-      <c r="J72" t="n">
-        <v>71420</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-71420</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M71" t="n">
+        <v>-5740</v>
+      </c>
+    </row>
+    <row r="72"/>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DIXON31AUG23C4650</t>
+          <t>IBULHSGFIN31AUG23P165</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>112876</v>
+        <v>38455</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3010,100 +2931,100 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>200</v>
+        <v>5100</v>
       </c>
       <c r="H73" t="n">
-        <v>400</v>
+        <v>10200</v>
       </c>
       <c r="I73" t="n">
-        <v>164.2</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
-        <v>65680</v>
+        <v>91800</v>
       </c>
       <c r="K73" t="n">
-        <v>65680</v>
+        <v>-91800</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-08-04 12:34:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23P165</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>38455</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>82620</v>
+      </c>
+      <c r="K74" t="n">
+        <v>82620</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="L74" t="inlineStr">
+    <row r="75">
+      <c r="L75" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>-5740</v>
-      </c>
-    </row>
-    <row r="75"/>
-    <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23P165</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>38455</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10200</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9</v>
-      </c>
-      <c r="J76" t="n">
-        <v>91800</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-91800</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M75" t="n">
+        <v>-9180</v>
+      </c>
+    </row>
+    <row r="76"/>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-08-04 13:34:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>ABCAPITAL</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23P165</t>
+          <t>ABCAPITAL31AUG23P187.5</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38455</v>
+        <v>65756</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3111,100 +3032,100 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="H77" t="n">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="I77" t="n">
-        <v>8.550000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J77" t="n">
-        <v>87210</v>
+        <v>66960</v>
       </c>
       <c r="K77" t="n">
-        <v>87210</v>
+        <v>-66960</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-08-04 14:23:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ABCAPITAL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ABCAPITAL31AUG23P187.5</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>65756</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>5400</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>69120</v>
+      </c>
+      <c r="K78" t="n">
+        <v>69120</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="L78" t="inlineStr">
+    <row r="79">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>-4590</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ABCAPITAL</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>65756</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>5400</v>
-      </c>
-      <c r="H80" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>66960</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-66960</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M79" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="80"/>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-08-04 13:35:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ABCAPITAL</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ABCAPITAL31AUG23P187.5</t>
+          <t>MGL31AUG23P1070</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>65756</v>
+        <v>135598</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3212,131 +3133,131 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5400</v>
+        <v>800</v>
       </c>
       <c r="H81" t="n">
-        <v>10800</v>
+        <v>2400</v>
       </c>
       <c r="I81" t="n">
-        <v>7.25</v>
+        <v>41.65</v>
       </c>
       <c r="J81" t="n">
-        <v>78300</v>
+        <v>99960</v>
       </c>
       <c r="K81" t="n">
-        <v>78300</v>
+        <v>-99960</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-08-04 13:15:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1070</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>135598</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>800</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1600</v>
+      </c>
+      <c r="I82" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>68960</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-68960</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1070</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>135598</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>800</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I83" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>198800</v>
+      </c>
+      <c r="K83" t="n">
+        <v>198800</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="L82" t="inlineStr">
+    <row r="84">
+      <c r="L84" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>11340</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>135598</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>800</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I84" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="J84" t="n">
-        <v>99960</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-99960</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:05:00</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1070</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>135598</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>800</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="J85" t="n">
-        <v>114360</v>
-      </c>
-      <c r="K85" t="n">
-        <v>114360</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M84" t="n">
+        <v>29880</v>
+      </c>
+    </row>
+    <row r="85"/>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>2023-08-04 13:15:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3346,11 +3267,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>MGL31AUG23P1060</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>135598</v>
+        <v>135596</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3361,16 +3282,16 @@
         <v>800</v>
       </c>
       <c r="H86" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="I86" t="n">
-        <v>43.1</v>
+        <v>41</v>
       </c>
       <c r="J86" t="n">
-        <v>68960</v>
+        <v>98400</v>
       </c>
       <c r="K86" t="n">
-        <v>-68960</v>
+        <v>-98400</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3381,7 +3302,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>2023-08-04 13:20:00</t>
+          <t>2023-08-04 15:15:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3391,11 +3312,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1070</t>
+          <t>MGL31AUG23P1060</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>135598</v>
+        <v>135596</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3409,94 +3330,94 @@
         <v>1600</v>
       </c>
       <c r="I87" t="n">
-        <v>47.7</v>
+        <v>44.25</v>
       </c>
       <c r="J87" t="n">
-        <v>76320</v>
+        <v>70800</v>
       </c>
       <c r="K87" t="n">
-        <v>76320</v>
+        <v>-70800</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MGL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MGL31AUG23P1060</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>135596</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>800</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I88" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="J88" t="n">
+        <v>173000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>173000</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="L88" t="inlineStr">
+    <row r="89">
+      <c r="L89" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>21760</v>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-08-04 14:15:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>MGL</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>MGL31AUG23P1060</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>135596</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>800</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I90" t="n">
-        <v>41</v>
-      </c>
-      <c r="J90" t="n">
-        <v>98400</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-98400</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M89" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="90"/>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>2023-08-04 15:10:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>135596</v>
+        <v>135362</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3504,44 +3425,44 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H91" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="I91" t="n">
-        <v>45</v>
+        <v>48.05</v>
       </c>
       <c r="J91" t="n">
-        <v>108000</v>
+        <v>96100</v>
       </c>
       <c r="K91" t="n">
-        <v>108000</v>
+        <v>-96100</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>2023-08-04 15:15:00</t>
+          <t>2023-08-04 13:15:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>135596</v>
+        <v>135362</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3549,19 +3470,19 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H92" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="I92" t="n">
-        <v>44.25</v>
+        <v>45</v>
       </c>
       <c r="J92" t="n">
-        <v>70800</v>
+        <v>90000</v>
       </c>
       <c r="K92" t="n">
-        <v>-70800</v>
+        <v>-90000</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3572,21 +3493,21 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>2023-08-04 15:26:00</t>
+          <t>2023-08-04 14:15:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MGL31AUG23P1060</t>
+          <t>METROPOLIS31AUG23P1360</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>135596</v>
+        <v>135362</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3594,100 +3515,100 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="H93" t="n">
         <v>1600</v>
       </c>
       <c r="I93" t="n">
-        <v>43.25</v>
+        <v>50.95</v>
       </c>
       <c r="J93" t="n">
-        <v>69200</v>
+        <v>81520</v>
       </c>
       <c r="K93" t="n">
-        <v>69200</v>
+        <v>-81520</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:26:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>METROPOLIS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>METROPOLIS31AUG23P1360</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>135362</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>400</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5600</v>
+      </c>
+      <c r="I94" t="n">
+        <v>52.85</v>
+      </c>
+      <c r="J94" t="n">
+        <v>295960</v>
+      </c>
+      <c r="K94" t="n">
+        <v>295960</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="L94" t="inlineStr">
+    <row r="95">
+      <c r="L95" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="95"/>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23P1360</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>135362</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>400</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I96" t="n">
-        <v>48.05</v>
-      </c>
-      <c r="J96" t="n">
-        <v>96100</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-96100</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M95" t="n">
+        <v>28340</v>
+      </c>
+    </row>
+    <row r="96"/>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023-08-04 13:15:00</t>
+          <t>2023-08-04 12:15:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>135362</v>
+        <v>128468</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3695,19 +3616,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="H97" t="n">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="I97" t="n">
-        <v>45</v>
+        <v>7.6</v>
       </c>
       <c r="J97" t="n">
-        <v>90000</v>
+        <v>82080</v>
       </c>
       <c r="K97" t="n">
-        <v>-90000</v>
+        <v>-82080</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3718,21 +3639,21 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023-08-04 14:04:00</t>
+          <t>2023-08-04 15:26:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>METROPOLIS31AUG23P1360</t>
+          <t>HINDPETRO31AUG23P270</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>135362</v>
+        <v>128468</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3740,19 +3661,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="H98" t="n">
-        <v>4000</v>
+        <v>10800</v>
       </c>
       <c r="I98" t="n">
-        <v>48.6</v>
+        <v>8.65</v>
       </c>
       <c r="J98" t="n">
-        <v>194400</v>
+        <v>93420</v>
       </c>
       <c r="K98" t="n">
-        <v>194400</v>
+        <v>93420</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3761,304 +3682,113 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023-08-04 14:15:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23P1360</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>135362</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>400</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50.95</v>
-      </c>
-      <c r="J99" t="n">
-        <v>81520</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-81520</v>
-      </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-08-04 15:15:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P267.5</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>128466</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13500</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>98550</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-98550</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
+    <row r="102">
+      <c r="B102" t="inlineStr">
         <is>
           <t>2023-08-04 15:26:00</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>METROPOLIS</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>METROPOLIS31AUG23P1360</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>135362</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>400</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1600</v>
-      </c>
-      <c r="I100" t="n">
-        <v>52.85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>84560</v>
-      </c>
-      <c r="K100" t="n">
-        <v>84560</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P267.5</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>128466</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H102" t="n">
+        <v>13500</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>98550</v>
+      </c>
+      <c r="K102" t="n">
+        <v>98550</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="L101" t="inlineStr">
+    <row r="103">
+      <c r="L103" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>11340</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-08-04 12:15:00</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P270</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>128468</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H103" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I103" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>82080</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-82080</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-08-04 13:28:00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P270</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>128468</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H104" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I104" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>85320</v>
-      </c>
-      <c r="K104" t="n">
-        <v>85320</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="106"/>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:15:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P267.5</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>128466</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H107" t="n">
-        <v>13500</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>98550</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-98550</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023-08-04 15:26:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P267.5</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>128466</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H108" t="n">
-        <v>13500</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>98550</v>
-      </c>
-      <c r="K108" t="n">
-        <v>98550</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="M103" t="n">
         <v>0</v>
       </c>
     </row>
